--- a/Documents/Finance/Timesheets/Max Holland/timesheet_MH_27_01_14.xlsx
+++ b/Documents/Finance/Timesheets/Max Holland/timesheet_MH_27_01_14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>Weekly Employee Timesheet</t>
   </si>
@@ -152,10 +152,16 @@
     <t>Do not submit copies or modifications of this template to the Google Docs template gallery. Thank you.</t>
   </si>
   <si>
-    <t>Mx Holland</t>
-  </si>
-  <si>
     <t>M. Holland</t>
+  </si>
+  <si>
+    <t>Prakruti Sinha</t>
+  </si>
+  <si>
+    <t>P.S</t>
+  </si>
+  <si>
+    <t>Max Holland</t>
   </si>
 </sst>
 </file>
@@ -847,7 +853,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -952,6 +958,40 @@
     <xf numFmtId="4" fontId="49" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="50" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -959,42 +999,11 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1331,7 +1340,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:I6"/>
+      <selection activeCell="G4" sqref="G4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1343,17 +1352,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="31" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
       <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
@@ -1369,13 +1378,13 @@
       <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -1383,26 +1392,26 @@
       <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="42"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="43" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
       <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="42"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="26"/>
@@ -1411,28 +1420,30 @@
       <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="43" t="s">
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="26"/>
@@ -1441,20 +1452,20 @@
       <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="43" t="s">
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="46">
+      <c r="F8" s="47"/>
+      <c r="G8" s="44">
         <v>41666</v>
       </c>
-      <c r="H8" s="47"/>
+      <c r="H8" s="49"/>
       <c r="I8" s="33" t="s">
         <v>8</v>
       </c>
@@ -1752,11 +1763,11 @@
       <c r="J21" s="10"/>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="3">
         <f>I18</f>
         <v>15</v>
@@ -1769,11 +1780,11 @@
       <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="3">
         <f>I20</f>
         <v>187.5</v>
@@ -1798,15 +1809,15 @@
       <c r="J24" s="10"/>
     </row>
     <row r="25" spans="1:10" s="11" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A25" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="46">
+      <c r="A25" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="44">
         <v>41672</v>
       </c>
-      <c r="E25" s="45"/>
+      <c r="E25" s="43"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -1814,15 +1825,15 @@
       <c r="J25" s="10"/>
     </row>
     <row r="26" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="48" t="s">
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="49"/>
+      <c r="E26" s="39"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
@@ -1830,11 +1841,15 @@
       <c r="J26" s="10"/>
     </row>
     <row r="27" spans="1:10" s="11" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A27" s="44"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="45"/>
+      <c r="A27" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="55">
+        <v>41682</v>
+      </c>
+      <c r="E27" s="43"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
@@ -1842,15 +1857,15 @@
       <c r="J27" s="10"/>
     </row>
     <row r="28" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="48" t="s">
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="49"/>
+      <c r="E28" s="39"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
@@ -1870,19 +1885,34 @@
       <c r="J29" s="10"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
       <c r="J30" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="A30:C30"/>
@@ -1893,21 +1923,6 @@
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:I4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -1933,17 +1948,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="31" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
       <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
@@ -1972,13 +1987,13 @@
       <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -1986,26 +2001,26 @@
       <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="42"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="43" t="s">
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
       <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="26"/>
@@ -2014,28 +2029,28 @@
       <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="43" t="s">
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
       <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="26"/>
@@ -2044,20 +2059,20 @@
       <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="43" t="s">
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="46">
+      <c r="F9" s="47"/>
+      <c r="G9" s="44">
         <v>39727</v>
       </c>
-      <c r="H9" s="45"/>
+      <c r="H9" s="43"/>
       <c r="I9" s="33" t="s">
         <v>8</v>
       </c>
@@ -2492,11 +2507,11 @@
       <c r="J30" s="10"/>
     </row>
     <row r="31" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
       <c r="D31" s="3">
         <f>I27</f>
         <v>8.43</v>
@@ -2509,11 +2524,11 @@
       <c r="J31" s="10"/>
     </row>
     <row r="32" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
       <c r="D32" s="3">
         <f>I29</f>
         <v>129.88999999999999</v>
@@ -2538,11 +2553,11 @@
       <c r="J33" s="10"/>
     </row>
     <row r="34" spans="1:10" s="11" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A34" s="44"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="45"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="43"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
@@ -2550,15 +2565,15 @@
       <c r="J34" s="10"/>
     </row>
     <row r="35" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="48" t="s">
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="49"/>
+      <c r="E35" s="39"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
@@ -2566,11 +2581,11 @@
       <c r="J35" s="10"/>
     </row>
     <row r="36" spans="1:10" s="11" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A36" s="44"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="45"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="43"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
@@ -2578,15 +2593,15 @@
       <c r="J36" s="10"/>
     </row>
     <row r="37" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A37" s="48" t="s">
+      <c r="A37" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="48" t="s">
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="49"/>
+      <c r="E37" s="39"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
@@ -2606,25 +2621,40 @@
       <c r="J38" s="10"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1">
-      <c r="A39" s="50" t="str">
+      <c r="A39" s="40" t="str">
         <f>HYPERLINK("http://www.vertex42.com/ExcelTemplates/excel-timesheet.html","Employee Timesheet Template")</f>
         <v>Employee Timesheet Template</v>
       </c>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
-      <c r="G39" s="51" t="str">
+      <c r="G39" s="41" t="str">
         <f>HYPERLINK("http://www.vertex42.com/ExcelTemplates/","Templates by Vertex42.com")</f>
         <v>Templates by Vertex42.com</v>
       </c>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
       <c r="J39" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="A39:C39"/>
@@ -2635,21 +2665,6 @@
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="D36:E36"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -2671,7 +2686,7 @@
     <col min="1" max="1" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="36" t="str">
         <f>HYPERLINK("http://www.vertex42.com/ExcelTemplates/excel-timesheet.html","Employee Timesheet Template")</f>
         <v>Employee Timesheet Template</v>
